--- a/GetInAruaUsers.xlsx
+++ b/GetInAruaUsers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="178">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -500,6 +500,60 @@
   </si>
   <si>
     <t xml:space="preserve">pfaida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uriama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofua/ Uriama HC III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asibazuyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ofuajasibazuyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midwife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msebit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iddi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiddi</t>
   </si>
 </sst>
 </file>
@@ -643,7 +697,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -710,6 +764,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -789,10 +847,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2006,14 +2064,130 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="17" t="n">
+        <v>787227919</v>
+      </c>
+      <c r="D47" s="17" t="n">
+        <v>787066377</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="17" t="n">
+        <v>786903569</v>
+      </c>
+      <c r="D48" s="17" t="n">
+        <v>778435972</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="17" t="n">
+        <v>787233847</v>
+      </c>
+      <c r="D49" s="17" t="n">
+        <v>780320087</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K49" s="17"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="17" t="n">
+        <v>786907316</v>
+      </c>
+      <c r="D50" s="17" t="n">
+        <v>780476191</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
